--- a/Results/Two Level Numbers.xlsx
+++ b/Results/Two Level Numbers.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="LogisticRegression - Obesity" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Min Preprocessing</t>
   </si>
@@ -99,6 +100,9 @@
   </si>
   <si>
     <t>Obesity (O)</t>
+  </si>
+  <si>
+    <t>Using LR, one hot encoding and ngram(1,2)</t>
   </si>
 </sst>
 </file>
@@ -671,15 +675,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
@@ -687,232 +691,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="7">
-        <v>3114</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1003</v>
-      </c>
-      <c r="D2" s="7">
-        <v>95.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="7">
-        <v>438</v>
-      </c>
-      <c r="C3" s="7">
-        <v>137</v>
-      </c>
-      <c r="D3" s="7">
-        <v>94.8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7">
-        <v>873</v>
+        <v>3114</v>
       </c>
       <c r="C4" s="7">
-        <v>279</v>
+        <v>1003</v>
       </c>
       <c r="D4" s="7">
-        <v>88.5</v>
+        <v>95.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="7">
-        <v>102</v>
+        <v>438</v>
       </c>
       <c r="C5" s="7">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7">
-        <v>89.7</v>
+        <v>94.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7">
-        <v>5270</v>
+        <v>873</v>
       </c>
       <c r="C6" s="7">
-        <v>1699</v>
+        <v>279</v>
       </c>
       <c r="D6" s="7">
-        <v>94.2</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7">
-        <v>571</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7">
-        <v>348</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>94.8</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7">
-        <v>312</v>
+        <v>5270</v>
       </c>
       <c r="C8" s="7">
-        <v>107</v>
+        <v>1699</v>
       </c>
       <c r="D8" s="7">
-        <v>92.5</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7">
+        <v>571</v>
+      </c>
+      <c r="C9" s="7">
+        <v>348</v>
+      </c>
+      <c r="D9" s="7">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7">
+        <v>312</v>
+      </c>
+      <c r="C10" s="7">
+        <v>107</v>
+      </c>
+      <c r="D10" s="7">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B11" s="7">
         <v>544</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C11" s="7">
         <v>175</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D11" s="7">
         <v>93.7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3552</v>
-      </c>
-      <c r="C11" s="9">
-        <v>1140</v>
-      </c>
-      <c r="D11" s="9">
-        <v>95.2</v>
-      </c>
-    </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="9">
-        <v>4425</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1419</v>
-      </c>
-      <c r="D12" s="9">
-        <v>93.8</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9">
-        <v>4527</v>
+        <v>3552</v>
       </c>
       <c r="C13" s="9">
-        <v>1458</v>
+        <v>1140</v>
       </c>
       <c r="D13" s="9">
-        <v>93.6</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="9">
-        <v>9797</v>
+        <v>4425</v>
       </c>
       <c r="C14" s="9">
-        <v>3157</v>
+        <v>1419</v>
       </c>
       <c r="D14" s="9">
-        <v>94.7</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9">
-        <v>10368</v>
+        <v>4527</v>
       </c>
       <c r="C15" s="9">
-        <v>3505</v>
+        <v>1458</v>
       </c>
       <c r="D15" s="9">
-        <v>94.5</v>
+        <v>93.6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="9">
-        <v>10680</v>
+        <v>9797</v>
       </c>
       <c r="C16" s="9">
-        <v>3612</v>
+        <v>3157</v>
       </c>
       <c r="D16" s="9">
-        <v>94.2</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10368</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3505</v>
+      </c>
+      <c r="D17" s="9">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9">
+        <v>10680</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3612</v>
+      </c>
+      <c r="D18" s="9">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B19" s="9">
         <v>11224</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C19" s="9">
         <v>3787</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D19" s="9">
         <v>94.1</v>
       </c>
     </row>
@@ -920,4 +929,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/Two Level Numbers.xlsx
+++ b/Results/Two Level Numbers.xlsx
@@ -102,7 +102,7 @@
     <t>Obesity (O)</t>
   </si>
   <si>
-    <t>Using LR, one hot encoding and ngram(1,2)</t>
+    <t>Using LR, one hot encoding, min preprocessing and ngram(1,2)</t>
   </si>
 </sst>
 </file>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -203,6 +203,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,9 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -690,8 +691,8 @@
     <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Results/Two Level Numbers.xlsx
+++ b/Results/Two Level Numbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LogisticRegression - Obesity" sheetId="1" r:id="rId1"/>
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -187,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -207,6 +213,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +668,7 @@
       <c r="B19" s="1">
         <v>79.8</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="11">
         <v>79.7</v>
       </c>
     </row>
@@ -680,7 +687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
